--- a/_data/cc/temporal/Monto.xlsx
+++ b/_data/cc/temporal/Monto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\BASE DE DATOS SENASIR_v2\ABRIL\CC\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acueto\Desktop\MAYO\CC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9255" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="BD_CC_M_UTI" sheetId="10" r:id="rId1"/>
@@ -817,6 +817,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -862,7 +863,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="B14:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I2" s="49">
         <f>+'SR - Planilla Desagregado'!G13</f>
-        <v>0</v>
+        <v>35576891.359999999</v>
       </c>
       <c r="J2" s="49">
         <f>+'SR - Planilla Desagregado'!H13</f>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I3" s="49">
         <f>+'SR - Planilla Desagregado'!G14</f>
-        <v>0</v>
+        <v>191895784.80000001</v>
       </c>
       <c r="J3" s="49">
         <f>+'SR - Planilla Desagregado'!H14</f>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="I4" s="49">
         <f>+'SR - Planilla Desagregado'!G16</f>
-        <v>0</v>
+        <v>4646237.05</v>
       </c>
       <c r="J4" s="49">
         <f>+'SR - Planilla Desagregado'!H16</f>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="I5" s="49">
         <f>+'SR - Planilla Desagregado'!G17</f>
-        <v>0</v>
+        <v>61754157.93</v>
       </c>
       <c r="J5" s="49">
         <f>+'SR - Planilla Desagregado'!H17</f>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="I6" s="49">
         <f>+'SR - Tit - DH'!G22</f>
-        <v>0</v>
+        <v>50431688.909999996</v>
       </c>
       <c r="J6" s="49">
         <f>+'SR - Tit - DH'!H22</f>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I7" s="49">
         <f>+'SR - Tit - DH'!G23</f>
-        <v>0</v>
+        <v>203218253.81999999</v>
       </c>
       <c r="J7" s="49">
         <f>+'SR - Tit - DH'!H23</f>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="I8" s="49">
         <f>+'SR - Tit - DH'!G25</f>
-        <v>0</v>
+        <v>36939311.299999997</v>
       </c>
       <c r="J8" s="49">
         <f>+'SR - Tit - DH'!H25</f>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="I9" s="49">
         <f>+'SR - Tit - DH'!G26</f>
-        <v>0</v>
+        <v>3283817.11</v>
       </c>
       <c r="J9" s="49">
         <f>+'SR - Tit - DH'!H26</f>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="I10" s="49">
         <f>+'SR - Clase de Renta'!F14</f>
-        <v>0</v>
+        <v>37656194.75</v>
       </c>
       <c r="J10" s="49">
         <f>+'SR - Clase de Renta'!G14</f>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="I11" s="49">
         <f>+'SR - Clase de Renta'!F15</f>
-        <v>0</v>
+        <v>2546848.34</v>
       </c>
       <c r="J11" s="49">
         <f>+'SR - Clase de Renta'!G15</f>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="I12" s="49">
         <f>+'SR - Clase de Renta'!F16</f>
-        <v>0</v>
+        <v>17202.11</v>
       </c>
       <c r="J12" s="49">
         <f>+'SR - Clase de Renta'!G16</f>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I13" s="49">
         <f>+'SR - Clase de Renta'!F17</f>
-        <v>0</v>
+        <v>2883.21</v>
       </c>
       <c r="J13" s="49">
         <f>+'SR - Clase de Renta'!G17</f>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="I14" s="49">
         <f>+'SR - Clase de Renta'!F18</f>
-        <v>0</v>
+        <v>253649942.72999999</v>
       </c>
       <c r="J14" s="49">
         <f>+'SR - Clase de Renta'!G18</f>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="I16" s="49">
         <f>+'SR - Tipo de Renta'!F14</f>
-        <v>0</v>
+        <v>6150008.7000000002</v>
       </c>
       <c r="J16" s="49">
         <f>+'SR - Tipo de Renta'!G14</f>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="I17" s="49">
         <f>+'SR - Tipo de Renta'!F15</f>
-        <v>0</v>
+        <v>287723062.44</v>
       </c>
       <c r="J17" s="49">
         <f>+'SR - Tipo de Renta'!G15</f>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="I18" s="49">
         <f>+'SR - Regional'!F13</f>
-        <v>0</v>
+        <v>1538712.8</v>
       </c>
       <c r="J18" s="49">
         <f>+'SR - Regional'!G13</f>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I19" s="49">
         <f>+'SR - Regional'!F14</f>
-        <v>0</v>
+        <v>60551970.899999999</v>
       </c>
       <c r="J19" s="49">
         <f>+'SR - Regional'!G14</f>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="I20" s="49">
         <f>+'SR - Regional'!F15</f>
-        <v>0</v>
+        <v>120256496.61</v>
       </c>
       <c r="J20" s="49">
         <f>+'SR - Regional'!G15</f>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="I21" s="49">
         <f>+'SR - Regional'!F16</f>
-        <v>0</v>
+        <v>13680041.220000001</v>
       </c>
       <c r="J21" s="49">
         <f>+'SR - Regional'!G16</f>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="I22" s="49">
         <f>+'SR - Regional'!F17</f>
-        <v>0</v>
+        <v>10340859.82</v>
       </c>
       <c r="J22" s="49">
         <f>+'SR - Regional'!G17</f>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="I23" s="49">
         <f>+'SR - Regional'!F19</f>
-        <v>0</v>
+        <v>59221368.590000004</v>
       </c>
       <c r="J23" s="49">
         <f>+'SR - Regional'!G19</f>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="I24" s="49">
         <f>+'SR - Regional'!F20</f>
-        <v>0</v>
+        <v>11252423.189999999</v>
       </c>
       <c r="J24" s="49">
         <f>+'SR - Regional'!G20</f>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I25" s="49">
         <f>+'SR - Regional'!F21</f>
-        <v>0</v>
+        <v>12530523.050000001</v>
       </c>
       <c r="J25" s="49">
         <f>+'SR - Regional'!G21</f>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="I26" s="49">
         <f>+'SR - Regional'!F18+'SR - Regional'!F22</f>
-        <v>0</v>
+        <v>4500674.96</v>
       </c>
       <c r="J26" s="49">
         <f>+'SR - Regional'!G18+'SR - Regional'!G22</f>
@@ -3210,8 +3210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:P20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F18"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,44 +3226,44 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
+      <c r="A6" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3283,62 +3283,62 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="59">
         <v>2024</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
       <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3392,7 +3392,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -3410,7 +3410,9 @@
       <c r="F13" s="24">
         <v>35447286.670000002</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="24">
+        <v>35576891.359999999</v>
+      </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -3421,11 +3423,11 @@
       <c r="O13" s="24"/>
       <c r="P13" s="32">
         <f>SUM(C13:O13)</f>
-        <v>140641743.29000002</v>
+        <v>176218634.65000004</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
@@ -3441,7 +3443,9 @@
       <c r="F14" s="24">
         <v>192327293.15000001</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="24">
+        <v>191895784.80000001</v>
+      </c>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -3452,14 +3456,14 @@
       <c r="O14" s="24"/>
       <c r="P14" s="32">
         <f>SUM(C14:O14)</f>
-        <v>783765086.68999994</v>
+        <v>975660871.49000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="25">
         <f t="shared" ref="C15:O15" si="0">SUM(C13:C14)</f>
         <v>232809819.74000001</v>
@@ -3478,7 +3482,7 @@
       </c>
       <c r="G15" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>227472676.16000003</v>
       </c>
       <c r="H15" s="25">
         <f t="shared" si="0"/>
@@ -3514,11 +3518,11 @@
       </c>
       <c r="P15" s="44">
         <f>SUM(P13:P14)</f>
-        <v>924406829.98000002</v>
+        <v>1151879506.1400001</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="65" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -3536,7 +3540,9 @@
       <c r="F16" s="24">
         <v>4667863.58</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="24">
+        <v>4646237.05</v>
+      </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -3547,11 +3553,11 @@
       <c r="O16" s="24"/>
       <c r="P16" s="32">
         <f>SUM(C16:O16)</f>
-        <v>17963967.539999999</v>
+        <v>22610204.59</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
@@ -3567,7 +3573,9 @@
       <c r="F17" s="24">
         <v>61561444.909999996</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="24">
+        <v>61754157.93</v>
+      </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -3578,14 +3586,14 @@
       <c r="O17" s="24"/>
       <c r="P17" s="32">
         <f>SUM(C17:O17)</f>
-        <v>245727144.73999998</v>
+        <v>307481302.66999996</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="25">
         <f t="shared" ref="C18:O18" si="1">SUM(C16:C17)</f>
         <v>61811576.75</v>
@@ -3604,7 +3612,7 @@
       </c>
       <c r="G18" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66400394.979999997</v>
       </c>
       <c r="H18" s="25">
         <f t="shared" si="1"/>
@@ -3640,14 +3648,14 @@
       </c>
       <c r="P18" s="44">
         <f>SUM(P16:P17)</f>
-        <v>263691112.27999997</v>
+        <v>330091507.25999993</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="26">
         <f t="shared" ref="C19:N19" si="2">C15+C18</f>
         <v>294621396.49000001</v>
@@ -3666,7 +3674,7 @@
       </c>
       <c r="G19" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>293873071.14000005</v>
       </c>
       <c r="H19" s="26">
         <f t="shared" si="2"/>
@@ -3702,7 +3710,7 @@
       </c>
       <c r="P19" s="26">
         <f>P15+P18</f>
-        <v>1188097942.26</v>
+        <v>1481971013.4000001</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3745,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="C13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3767,44 +3775,44 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
+      <c r="A6" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -3823,69 +3831,69 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="58">
+      <c r="B11" s="68"/>
+      <c r="C11" s="59">
         <v>2024</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="47"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
@@ -3931,10 +3939,10 @@
       <c r="Q12" s="47"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="24">
         <v>38739085.030000001</v>
       </c>
@@ -3947,7 +3955,9 @@
       <c r="F13" s="24">
         <v>40115150.25</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="24">
+        <v>40223128.409999996</v>
+      </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -3958,15 +3968,15 @@
       <c r="O13" s="24"/>
       <c r="P13" s="32">
         <f>SUM(C13:O13)</f>
-        <v>158605710.82999998</v>
+        <v>198828839.23999998</v>
       </c>
       <c r="Q13" s="47"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="24">
         <v>255882311.46000001</v>
       </c>
@@ -3979,7 +3989,9 @@
       <c r="F14" s="24">
         <v>253888738.06</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="24">
+        <v>253649942.72999999</v>
+      </c>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -3990,15 +4002,15 @@
       <c r="O14" s="24"/>
       <c r="P14" s="32">
         <f>SUM(C14:O14)</f>
-        <v>1029492231.4300001</v>
+        <v>1283142174.1600001</v>
       </c>
       <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="51">
         <f>+C14+C13</f>
         <v>294621396.49000001</v>
@@ -4017,7 +4029,7 @@
       </c>
       <c r="G15" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293873071.13999999</v>
       </c>
       <c r="H15" s="26">
         <f t="shared" si="0"/>
@@ -4053,7 +4065,7 @@
       </c>
       <c r="P15" s="27">
         <f t="shared" si="0"/>
-        <v>1188097942.26</v>
+        <v>1481971013.4000001</v>
       </c>
       <c r="Q15" s="47"/>
     </row>
@@ -4102,21 +4114,21 @@
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="59">
         <v>2024</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -4188,7 +4200,9 @@
       <c r="F22" s="24">
         <v>50564261.630000003</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="24">
+        <v>50431688.909999996</v>
+      </c>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
@@ -4199,7 +4213,7 @@
       <c r="O22" s="24"/>
       <c r="P22" s="32">
         <f t="shared" ref="P22:P27" si="1">SUM(C22:O22)</f>
-        <v>205880027.64999998</v>
+        <v>256311716.55999997</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4219,7 +4233,9 @@
       <c r="F23" s="24">
         <v>203324476.43000001</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="24">
+        <v>203218253.81999999</v>
+      </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -4230,7 +4246,7 @@
       <c r="O23" s="24"/>
       <c r="P23" s="32">
         <f t="shared" si="1"/>
-        <v>823612203.77999997</v>
+        <v>1026830457.5999999</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -4256,7 +4272,7 @@
       </c>
       <c r="G24" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>253649942.72999999</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="3"/>
@@ -4292,7 +4308,7 @@
       </c>
       <c r="P24" s="45">
         <f t="shared" si="1"/>
-        <v>1029492231.4300001</v>
+        <v>1283142174.1600001</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -4314,7 +4330,9 @@
       <c r="F25" s="24">
         <v>37306264.299999997</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="24">
+        <v>36939311.299999997</v>
+      </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -4325,7 +4343,7 @@
       <c r="O25" s="24"/>
       <c r="P25" s="32">
         <f t="shared" si="1"/>
-        <v>146573188.55000001</v>
+        <v>183512499.85000002</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4345,7 +4363,9 @@
       <c r="F26" s="24">
         <v>2808885.95</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="24">
+        <v>3283817.11</v>
+      </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -4356,7 +4376,7 @@
       <c r="O26" s="24"/>
       <c r="P26" s="32">
         <f t="shared" si="1"/>
-        <v>12032522.280000001</v>
+        <v>15316339.390000001</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4382,7 +4402,7 @@
       </c>
       <c r="G27" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40223128.409999996</v>
       </c>
       <c r="H27" s="25">
         <f t="shared" si="5"/>
@@ -4418,7 +4438,7 @@
       </c>
       <c r="P27" s="45">
         <f t="shared" si="1"/>
-        <v>158605710.82999998</v>
+        <v>198828839.23999998</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -4444,7 +4464,7 @@
       </c>
       <c r="G28" s="26">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>293873071.13999999</v>
       </c>
       <c r="H28" s="26">
         <f t="shared" si="7"/>
@@ -4480,7 +4500,7 @@
       </c>
       <c r="P28" s="27">
         <f>P24+P27</f>
-        <v>1188097942.26</v>
+        <v>1481971013.4000001</v>
       </c>
     </row>
   </sheetData>
@@ -4508,7 +4528,7 @@
   <dimension ref="A6:O20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E19"/>
+      <selection activeCell="F14" sqref="F14:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4521,42 +4541,42 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
+      <c r="A6" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -4591,59 +4611,59 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="59">
         <v>2024</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -4709,7 +4729,9 @@
       <c r="E14" s="28">
         <v>36621993.340000004</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>37656194.75</v>
+      </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
@@ -4720,7 +4742,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="33">
         <f t="shared" ref="O14:O19" si="0">SUM(B14:N14)</f>
-        <v>144304594.53999999</v>
+        <v>181960789.28999999</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -4739,7 +4761,9 @@
       <c r="E15" s="28">
         <v>3467707.49</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>2546848.34</v>
+      </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
@@ -4750,7 +4774,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="33">
         <f t="shared" si="0"/>
-        <v>14209990.660000002</v>
+        <v>16756839.000000002</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -4769,7 +4793,9 @@
       <c r="E16" s="28">
         <v>17258.310000000001</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>17202.11</v>
+      </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
@@ -4780,7 +4806,7 @@
       <c r="N16" s="28"/>
       <c r="O16" s="33">
         <f t="shared" si="0"/>
-        <v>78297.37999999999</v>
+        <v>95499.489999999991</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4799,7 +4825,9 @@
       <c r="E17" s="28">
         <v>8191.11</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>2883.21</v>
+      </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -4810,7 +4838,7 @@
       <c r="N17" s="28"/>
       <c r="O17" s="33">
         <f t="shared" si="0"/>
-        <v>12828.25</v>
+        <v>15711.46</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -4829,7 +4857,9 @@
       <c r="E18" s="28">
         <v>253888738.06</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>253649942.72999999</v>
+      </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -4840,7 +4870,7 @@
       <c r="N18" s="28"/>
       <c r="O18" s="33">
         <f t="shared" si="0"/>
-        <v>767032269.80999994</v>
+        <v>1020682212.54</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -4859,7 +4889,9 @@
       <c r="E19" s="28">
         <v>0</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -4895,7 +4927,7 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293873071.13999999</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
@@ -4931,7 +4963,7 @@
       </c>
       <c r="O20" s="30">
         <f>SUM(O14:O19)</f>
-        <v>1188097942.2599998</v>
+        <v>1481971013.4000001</v>
       </c>
     </row>
   </sheetData>
@@ -4953,7 +4985,7 @@
   <dimension ref="A6:O16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4965,42 +4997,42 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
+      <c r="A6" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5035,59 +5067,59 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="59">
         <v>2024</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
       <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5153,7 +5185,9 @@
       <c r="E14" s="50">
         <v>5473829.7199999997</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>6150008.7000000002</v>
+      </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
@@ -5164,7 +5198,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="33">
         <f>SUM(B14:N14)</f>
-        <v>40142766.670000002</v>
+        <v>46292775.370000005</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5183,7 +5217,9 @@
       <c r="E15" s="50">
         <v>288530058.58999997</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>287723062.44</v>
+      </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
@@ -5194,7 +5230,7 @@
       <c r="N15" s="34"/>
       <c r="O15" s="33">
         <f>SUM(B15:N15)</f>
-        <v>1147955175.5899999</v>
+        <v>1435678238.03</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5219,7 +5255,7 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293873071.13999999</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="0"/>
@@ -5255,7 +5291,7 @@
       </c>
       <c r="O16" s="30">
         <f>SUM(O14:O15)</f>
-        <v>1188097942.26</v>
+        <v>1481971013.4000001</v>
       </c>
     </row>
   </sheetData>
@@ -5276,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5291,42 +5327,42 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
+      <c r="A6" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5345,59 +5381,59 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="59">
         <v>2024</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="61"/>
       <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -5463,7 +5499,9 @@
       <c r="E13" s="28">
         <v>1559017.26</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>1538712.8</v>
+      </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
@@ -5474,7 +5512,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="33">
         <f t="shared" ref="O13:O22" si="0">SUM(B13:N13)</f>
-        <v>6147743.3499999996</v>
+        <v>7686456.1499999994</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -5493,7 +5531,9 @@
       <c r="E14" s="28">
         <v>60488609.149999999</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>60551970.899999999</v>
+      </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
@@ -5504,7 +5544,7 @@
       <c r="N14" s="28"/>
       <c r="O14" s="33">
         <f t="shared" si="0"/>
-        <v>244683880.67000002</v>
+        <v>305235851.56999999</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -5523,7 +5563,9 @@
       <c r="E15" s="28">
         <v>120336391.73</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>120256496.61</v>
+      </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
@@ -5534,7 +5576,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="33">
         <f t="shared" si="0"/>
-        <v>485155325.02000004</v>
+        <v>605411821.63</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5553,7 +5595,9 @@
       <c r="E16" s="28">
         <v>13846310.960000001</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>13680041.220000001</v>
+      </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
@@ -5564,7 +5608,7 @@
       <c r="N16" s="28"/>
       <c r="O16" s="33">
         <f t="shared" si="0"/>
-        <v>55579016.75</v>
+        <v>69259057.969999999</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -5583,7 +5627,9 @@
       <c r="E17" s="28">
         <v>10267206.619999999</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>10340859.82</v>
+      </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -5594,7 +5640,7 @@
       <c r="N17" s="28"/>
       <c r="O17" s="33">
         <f t="shared" si="0"/>
-        <v>42116965.799999997</v>
+        <v>52457825.619999997</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -5604,7 +5650,7 @@
       <c r="B18" s="52">
         <v>3141.6</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="55">
         <v>0</v>
       </c>
       <c r="D18" s="28">
@@ -5613,7 +5659,9 @@
       <c r="E18" s="28">
         <v>7987.74</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -5643,7 +5691,9 @@
       <c r="E19" s="28">
         <v>58962074.170000002</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>59221368.590000004</v>
+      </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -5654,7 +5704,7 @@
       <c r="N19" s="28"/>
       <c r="O19" s="33">
         <f t="shared" si="0"/>
-        <v>239510289.37</v>
+        <v>298731657.96000004</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -5673,7 +5723,9 @@
       <c r="E20" s="28">
         <v>11357535.27</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>11252423.189999999</v>
+      </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
@@ -5684,7 +5736,7 @@
       <c r="N20" s="28"/>
       <c r="O20" s="33">
         <f t="shared" si="0"/>
-        <v>45677697.00999999</v>
+        <v>56930120.199999988</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -5703,7 +5755,9 @@
       <c r="E21" s="28">
         <v>12581543.199999999</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>12530523.050000001</v>
+      </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
@@ -5714,7 +5768,7 @@
       <c r="N21" s="28"/>
       <c r="O21" s="33">
         <f t="shared" si="0"/>
-        <v>50816423.879999995</v>
+        <v>63346946.929999992</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -5733,7 +5787,9 @@
       <c r="E22" s="28">
         <v>4597212.21</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>4500674.96</v>
+      </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
@@ -5744,7 +5800,7 @@
       <c r="N22" s="28"/>
       <c r="O22" s="33">
         <f t="shared" si="0"/>
-        <v>18332789.91</v>
+        <v>22833464.870000001</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -5769,7 +5825,7 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293873071.13999999</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
@@ -5805,7 +5861,7 @@
       </c>
       <c r="O23" s="30">
         <f>SUM(O13:O22)</f>
-        <v>1188097942.26</v>
+        <v>1481971013.4000001</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -5845,40 +5901,40 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+      <c r="A6" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5913,58 +5969,58 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="59">
         <v>2024</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
